--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mokek\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mokek\OneDrive\デスクトップ\ゲームプログラミング\14Fukushima\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -118,16 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>４.飛行機の種類</t>
-    <rPh sb="2" eb="5">
-      <t>ヒコウキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の弾に3回当たってもゲームオーバー</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -232,25 +222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>稀に旅客機が出てくる、攻撃してしまうとスコアが減る。</t>
-    <rPh sb="0" eb="1">
-      <t>マレ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>リョカクキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.プレイヤーが最初から強いので敵を倒しまくれるが敵は、数で圧倒してくるバランス</t>
     <rPh sb="8" eb="10">
       <t>サイショ</t>
@@ -276,22 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4.大量の敵を倒す爽快感のあるシューティングゲーム</t>
-    <rPh sb="2" eb="4">
-      <t>タイリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ソウカイカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.敵は、撃って攻撃してくる</t>
     <rPh sb="2" eb="3">
       <t>テキ</t>
@@ -384,25 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーは、同時に３発、前方向に撃てる</t>
-    <rPh sb="7" eb="9">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ハツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵のUFOを打ち落とせ</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -442,28 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.赤いUFOや旅客機が出現するかなどのランダム要素により、プレイ体験やスコアが変わる</t>
-    <rPh sb="2" eb="3">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>リョカクキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>タイケン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>たまに赤いUFOが出てくる、打ち落とすと高得点</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -503,8 +417,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UFOは、弾をゆっくり８方向に向かって撃ってくる</t>
+    <t>UFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤いUFOは、弾をゆっくり４方向に向かって撃ってくる。UFOを回転させて弾を扇状にばらまくようにしたい</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは、３発、前方向に撃てる</t>
+    <rPh sb="8" eb="9">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４UFOの種類</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5　マップボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの最後にボスのUFOなどを配置する</t>
+    <rPh sb="4" eb="6">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.大量の敵を倒す爽快感のあるシューティングゲーム</t>
+  </si>
+  <si>
+    <t>3.ボスが歯ごたえある難易度</t>
     <rPh sb="5" eb="6">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UFOは、ゆっくり弾を２方向に向かって撃ってくる。UFOを回転させ、扇状に弾をばらまくイメージ</t>
+    <rPh sb="9" eb="10">
       <t>タマ</t>
     </rPh>
     <rPh sb="12" eb="14">
@@ -516,10 +491,25 @@
     <rPh sb="19" eb="20">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UFO</t>
+    <rPh sb="29" eb="31">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オウギジョウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歯ごたえのある難易度にしたい</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ナンイド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -853,9 +843,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -888,42 +878,47 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -931,74 +926,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>22</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1083,12 +1088,12 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -1098,10 +1103,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -1109,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -98,19 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵に当たると、破壊される</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（敵）</t>
     <rPh sb="1" eb="2">
       <t>テキ</t>
@@ -303,19 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弾を発射する（SPACEキー：発射）</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッシャ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上から出現して、下へ向かって移動する。</t>
     <rPh sb="0" eb="1">
       <t>ウエ</t>
@@ -509,6 +483,236 @@
     </rPh>
     <rPh sb="7" eb="10">
       <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に当たると、破壊される</t>
+  </si>
+  <si>
+    <t>敵の弾に当たると、破壊される</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの弾に当たると、消滅する</t>
+    <rPh sb="6" eb="7">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UFOを回転させる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤いUFO</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（敵）</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾を3発発射する（SPACEキー：発射）</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>パツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー弾</t>
+    <rPh sb="5" eb="6">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上に移動する</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UFOに当たると消える</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の弾</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（UFO）2方向に弾を発射する</t>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（赤いUFO）4方向に弾を発射する</t>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの弾に当たると消える</t>
+    <rPh sb="6" eb="7">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を画面上に配置する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの初期位置を画面下に配置する</t>
+    <rPh sb="6" eb="10">
+      <t>ショキイチ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UFOを出現させる</t>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスを倒すとステージクリアにする</t>
+    <rPh sb="3" eb="4">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回破壊されるとゲームが終了する</t>
+    <rPh sb="1" eb="4">
+      <t>カイハカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに向かって扇状に弾を撃ってくる</t>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウギジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の弾に当たると消える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -534,12 +738,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -556,12 +766,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -878,47 +1091,47 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -928,7 +1141,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
@@ -938,47 +1151,47 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -988,22 +1201,22 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1014,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1087,35 +1300,195 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -209,87 +209,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.プレイヤーが最初から強いので敵を倒しまくれるが敵は、数で圧倒してくるバランス</t>
-    <rPh sb="8" eb="10">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>アットウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.敵は、撃って攻撃してくる</t>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵を倒しても敵の弾は、画面外に出るまで消滅しない、その分敵の弾の当たり判定を小さくする</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ガメンガイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウメツ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上から出現して、下へ向かって移動する。</t>
     <rPh sb="0" eb="1">
       <t>ウエ</t>
@@ -375,22 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.敵の種類を見分けて撃たないとダメ</t>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ミワ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UFO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -418,17 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>４UFOの種類</t>
-    <rPh sb="5" eb="7">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5　マップボス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップの最後にボスのUFOなどを配置する</t>
     <rPh sb="4" eb="6">
       <t>サイゴ</t>
@@ -439,19 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4.大量の敵を倒す爽快感のあるシューティングゲーム</t>
-  </si>
-  <si>
-    <t>3.ボスが歯ごたえある難易度</t>
-    <rPh sb="5" eb="6">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ナンイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UFOは、ゆっくり弾を２方向に向かって撃ってくる。UFOを回転させ、扇状に弾をばらまくイメージ</t>
     <rPh sb="9" eb="10">
       <t>タマ</t>
@@ -473,16 +352,6 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歯ごたえのある難易度にしたい</t>
-    <rPh sb="0" eb="1">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ナンイド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -713,6 +582,185 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上に進むように画面をスクロールさせる</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面をスクロールする</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒しても敵の弾は、画面外に出るかプレイヤーの弾に当たるまで消滅しない、その分敵の弾の当たり判定を小さくする</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ガメンガイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウメツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲が事前に見えて、その範囲に弾を撃ってくる</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常の弾の攻撃もあるが道中の敵より大きめに設定する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="17">
+      <t>ドウチュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２.ボスが歯ごたえある難易度</t>
+    <rPh sb="5" eb="6">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３.大量の敵を倒す爽快感のあるシューティングゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１.プレイヤーが最初から強いので敵を倒しまくれるが敵は、数で圧倒してくるバランス</t>
+    <rPh sb="8" eb="10">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アットウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.マップボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４.UFOの種類</t>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.敵は、弾を撃って攻撃してくる</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -766,14 +814,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1091,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -1106,117 +1157,122 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1227,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34:Q34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1244,10 +1300,10 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
@@ -1301,194 +1357,204 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q35" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -143,34 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１．次々と画面外から飛来する、敵の戦闘機を機関砲で打ち落とせ</t>
-    <rPh sb="2" eb="4">
-      <t>ツギツギ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ガメンガイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒライ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>セントウキ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>キカンホウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーは、前後左右に移動できる</t>
     <rPh sb="7" eb="9">
       <t>ゼンゴ</t>
@@ -533,13 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボスを倒すとステージクリアにする</t>
-    <rPh sb="3" eb="4">
-      <t>タオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3回破壊されるとゲームが終了する</t>
     <rPh sb="1" eb="4">
       <t>カイハカイ</t>
@@ -655,50 +620,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>範囲が事前に見えて、その範囲に弾を撃ってくる</t>
-    <rPh sb="0" eb="2">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常の弾の攻撃もあるが道中の敵より大きめに設定する</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="11" eb="17">
-      <t>ドウチュウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>２.ボスが歯ごたえある難易度</t>
     <rPh sb="5" eb="6">
       <t>ハ</t>
@@ -761,6 +682,89 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップボスを倒すとステージクリア</t>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップボスを倒すとステージクリアにする</t>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃範囲が事前に見えて、範囲が消えるまでに回避すればノーダメージ　範囲に留まるとダメージを受けるギミック</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の当たり判定を雑魚より大きめにする</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．次々と飛来する、UFOを打ち落とせ</t>
+    <rPh sb="2" eb="4">
+      <t>ツギツギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒライ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,11 +825,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1142,52 +1146,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
@@ -1197,7 +1201,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
@@ -1207,12 +1211,12 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
@@ -1222,37 +1226,42 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -1262,17 +1271,17 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1285,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1300,10 +1309,10 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
@@ -1357,7 +1366,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1367,29 +1376,29 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1399,65 +1408,65 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1465,41 +1474,41 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1507,50 +1516,50 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
         <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>

--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>たまに赤いUFOが出てくる、打ち落とすと高得点</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>１番多く出てくるUFO、打ち落とすことでスコアがもらえる</t>
     <rPh sb="1" eb="2">
       <t>バン</t>
@@ -700,59 +696,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃範囲が事前に見えて、範囲が消えるまでに回避すればノーダメージ　範囲に留まるとダメージを受けるギミック</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弾の当たり判定を雑魚より大きめにする</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ザコ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>１．次々と飛来する、UFOを打ち落とせ</t>
     <rPh sb="2" eb="4">
       <t>ツギツギ</t>
@@ -765,6 +708,119 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃範囲が事前にわかるギミック</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の当たり判定を通常の敵より大きめにする</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たまに赤いUFOが出てくる、打ち落とすと高得点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４.スコアをどれだけ稼げるかなど、</t>
+    <rPh sb="10" eb="11">
+      <t>カセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６．追加できそうであれば、追加したいもの</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横スクロールのステージなど</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードモード、プレイヤーがUFOになって操作するモード（残機１）</t>
+    <rPh sb="20" eb="22">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ザンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ数は２個は作りたい</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス独自の攻撃方法などを複数追加したい</t>
+    <rPh sb="2" eb="4">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>コウゲキホウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアタック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマブラの百人組手のようなモード</t>
+    <rPh sb="5" eb="9">
+      <t>ヒャクニンクミテ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1111,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1151,7 +1207,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -1161,22 +1217,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -1186,7 +1242,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -1201,7 +1257,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
@@ -1226,27 +1282,27 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
@@ -1261,27 +1317,67 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1462,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1376,26 +1472,26 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1415,21 +1511,21 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1439,7 +1535,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1449,24 +1545,24 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1474,41 +1570,41 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
         <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1516,42 +1612,42 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
         <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1559,7 +1655,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>

--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -266,29 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤いUFOは、弾をゆっくり４方向に向かって撃ってくる。UFOを回転させて弾を扇状にばらまくようにしたい</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーは、３発、前方向に撃てる</t>
-    <rPh sb="8" eb="9">
-      <t>ハツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップの最後にボスのUFOなどを配置する</t>
     <rPh sb="4" eb="6">
       <t>サイゴ</t>
@@ -299,31 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UFOは、ゆっくり弾を２方向に向かって撃ってくる。UFOを回転させ、扇状に弾をばらまくイメージ</t>
-    <rPh sb="9" eb="10">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>オウギジョウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -378,22 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弾を3発発射する（SPACEキー：発射）</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>パツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハッシャ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー弾</t>
     <rPh sb="5" eb="6">
       <t>ダン</t>
@@ -431,26 +367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（UFO）2方向に弾を発射する</t>
-    <rPh sb="6" eb="8">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（赤いUFO）4方向に弾を発射する</t>
-    <rPh sb="1" eb="2">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーの弾に当たると消える</t>
     <rPh sb="6" eb="7">
       <t>タマ</t>
@@ -547,26 +463,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上に進むように画面をスクロールさせる</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面をスクロールする</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵を倒しても敵の弾は、画面外に出るかプレイヤーの弾に当たるまで消滅しない、その分敵の弾の当たり判定を小さくする</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -758,16 +654,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>６．追加できそうであれば、追加したいもの</t>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>横スクロールのステージなど</t>
     <rPh sb="0" eb="1">
       <t>ヨコ</t>
@@ -785,35 +671,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ数は２個は作りたい</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボス独自の攻撃方法などを複数追加したい</t>
-    <rPh sb="2" eb="4">
-      <t>ドクジ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>コウゲキホウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイムアタック</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,6 +678,263 @@
     <t>スマブラの百人組手のようなモード</t>
     <rPh sb="5" eb="9">
       <t>ヒャクニンクミテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.技術的に難しいかもだけど挑戦したいもの</t>
+    <rPh sb="2" eb="4">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ数は最低でも２個は作りたい</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは、２発、前方向に撃てる</t>
+    <rPh sb="8" eb="9">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾を２発発射する（SPACEキー：発射）</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>パツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常の敵の動きや（通常）敵の弾の動きに種類を増やしたい</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦スクロール</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を縦スクロールする</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UFOは、プレイヤーに向かって弾を撃ってくる　</t>
+    <rPh sb="11" eb="12">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（赤いUFO）プレイヤーに向かって３発撃ってくる</t>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（UFO）プレイヤーに向かって弾を撃ってくる</t>
+    <rPh sb="11" eb="12">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤いUFOは、プレイヤーに向かって３発弾を撃ってくる　</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>パツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム要素も入れたい（残機が１増える、敵に追尾する弾、スコアが増えるアイテム、無敵など）</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ザンキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイビ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ムテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス限定の攻撃などを複数追加したい　</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の弾を食らった時のエフェクト、弾同士が衝突したときのエフェクト、敵を倒した時のエフェクト、ボスを倒した時のエフェクト</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>タマドウシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -829,7 +943,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,6 +956,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -874,7 +996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,6 +1008,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1207,7 +1332,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -1217,22 +1342,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -1242,7 +1367,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -1257,7 +1382,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
@@ -1282,7 +1407,7 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
@@ -1292,97 +1417,113 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>57</v>
+      <c r="B30" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1390,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1462,7 +1603,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1472,20 +1613,20 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1511,21 +1652,21 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1535,7 +1676,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1545,24 +1686,24 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1570,41 +1711,41 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1612,42 +1753,42 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1655,7 +1796,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>

--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -280,25 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵に当たると、破壊される</t>
-  </si>
-  <si>
-    <t>敵の弾に当たると、破壊される</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーの弾に当たると、消滅する</t>
     <rPh sb="6" eb="7">
       <t>タマ</t>
@@ -367,19 +348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの弾に当たると消える</t>
-    <rPh sb="6" eb="7">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -671,10 +639,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイムアタック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スマブラの百人組手のようなモード</t>
     <rPh sb="5" eb="9">
       <t>ヒャクニンクミテ</t>
@@ -855,37 +819,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム要素も入れたい（残機が１増える、敵に追尾する弾、スコアが増えるアイテム、無敵など）</t>
-    <rPh sb="4" eb="6">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ザンキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ツイビ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ムテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボス限定の攻撃などを複数追加したい　</t>
     <rPh sb="2" eb="4">
       <t>ゲンテイ</t>
@@ -935,6 +868,73 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアタック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム要素（残機が１増える、敵に追尾する弾、スコアが増えるアイテム、無敵など）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの弾に当たると消える（エフェクトも付ける）</t>
+    <rPh sb="6" eb="7">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスを倒した時のエフェクト</t>
+    <rPh sb="3" eb="4">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの弾に当たると、消滅する（エフェクトも付ける）</t>
+    <rPh sb="6" eb="7">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に当たると、破壊される（エフェクトも付ける）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の弾に当たると、破壊される（エフェクトも付ける）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1006,11 +1006,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="B6" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -1342,22 +1342,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -1367,7 +1367,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -1380,119 +1380,119 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="4" t="s">
-        <v>49</v>
+      <c r="B30" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>52</v>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -1500,24 +1500,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>58</v>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1546,10 +1546,10 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
@@ -1613,22 +1613,26 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -1652,21 +1656,21 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1676,7 +1680,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1686,66 +1690,74 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1753,42 +1765,45 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>36</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1796,7 +1811,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>

--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -280,23 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの弾に当たると、消滅する</t>
-    <rPh sb="6" eb="7">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショウメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UFOを回転させる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>赤いUFO</t>
     <rPh sb="0" eb="1">
       <t>アカ</t>
@@ -385,16 +368,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3回破壊されるとゲームが終了する</t>
-    <rPh sb="1" eb="4">
-      <t>カイハカイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -494,31 +467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１.プレイヤーが最初から強いので敵を倒しまくれるが敵は、数で圧倒してくるバランス</t>
-    <rPh sb="8" eb="10">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>アットウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5.マップボス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -662,22 +610,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ数は最低でも２個は作りたい</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーは、２発、前方向に撃てる</t>
     <rPh sb="8" eb="9">
       <t>ハツ</t>
@@ -906,7 +838,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの弾に当たると、消滅する（エフェクトも付ける）</t>
+    <t>アイテムが一定確率で出現するようにする</t>
+    <rPh sb="5" eb="9">
+      <t>イッテイカクリツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムが一定確率で出現するようにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ数は最低でも２個は作りたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回破壊されるとゲームがタイトル画面に戻される</t>
+    <rPh sb="1" eb="4">
+      <t>カイハカイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１.敵は、数で圧倒してくるゲームバランス</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アットウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの弾に当たると、消滅する（倒した時の効果音）（エフェクト）</t>
     <rPh sb="6" eb="7">
       <t>タマ</t>
     </rPh>
@@ -916,14 +896,19 @@
     <rPh sb="13" eb="15">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵に当たると、破壊される（エフェクトも付ける）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の弾に当たると、破壊される（エフェクトも付ける）</t>
+    <rPh sb="18" eb="19">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の弾に当たると、破壊される（倒された時の効果音）（エフェクト）</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
@@ -935,6 +920,56 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ハカイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に当たると、破壊される（倒された時の効果音）（エフェクト）</t>
+    <rPh sb="13" eb="14">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒した時の効果音（敵に倒された時の効果音）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>コウカオン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1292,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1332,7 +1367,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -1342,22 +1377,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -1367,7 +1402,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -1382,17 +1417,22 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
@@ -1417,7 +1457,7 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
@@ -1427,12 +1467,12 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
@@ -1442,82 +1482,87 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1529,20 +1574,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="17" width="5.625" customWidth="1"/>
+    <col min="3" max="15" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1551,7 +1596,7 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -1594,14 +1639,8 @@
       <c r="O2">
         <v>13</v>
       </c>
-      <c r="P2">
-        <v>14</v>
-      </c>
-      <c r="Q2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1611,14 +1650,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1626,15 +1665,15 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1644,7 +1683,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1654,168 +1693,174 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -680,16 +680,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面を縦スクロールする</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UFOは、プレイヤーに向かって弾を撃ってくる　</t>
     <rPh sb="11" eb="12">
       <t>ム</t>
@@ -970,6 +960,16 @@
     </rPh>
     <rPh sb="19" eb="22">
       <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景を縦スクロールする</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タテ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1382,12 +1382,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -1417,17 +1417,17 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
@@ -1512,17 +1512,17 @@
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
@@ -1537,7 +1537,7 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -1547,7 +1547,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -1576,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1"/>
       <c r="L5" s="1"/>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1"/>
       <c r="L6" s="1"/>
@@ -1695,14 +1695,14 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1732,14 +1732,14 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1795,14 +1795,14 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1823,15 +1823,15 @@
       <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
@@ -1848,7 +1848,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1856,11 +1856,11 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1680,8 +1680,8 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -1690,8 +1690,8 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
@@ -1704,8 +1704,6 @@
       <c r="B11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1717,8 +1715,8 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -1727,8 +1725,8 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B15" t="s">

--- a/福島慶悟　企画書と仕様書.xlsx
+++ b/福島慶悟　企画書と仕様書.xlsx
@@ -1574,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="P8" sqref="P8:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1587,7 +1587,7 @@
     <col min="3" max="15" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -1630,17 +1630,8 @@
       <c r="L2">
         <v>10</v>
       </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="O2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1650,30 +1641,30 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="G6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1683,7 +1674,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1693,22 +1684,22 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>71</v>
       </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1718,7 +1709,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1728,43 +1719,43 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>69</v>
       </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1774,47 +1765,47 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>61</v>
       </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>68</v>
       </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1824,35 +1815,33 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>80</v>
       </c>
